--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angptl2-Itga5.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H2">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I2">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J2">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>81.61331525238452</v>
+        <v>82.43847474583599</v>
       </c>
       <c r="R2">
-        <v>81.61331525238452</v>
+        <v>329.753898983344</v>
       </c>
       <c r="S2">
-        <v>0.004671505879966374</v>
+        <v>0.004270307079759084</v>
       </c>
       <c r="T2">
-        <v>0.004671505879966374</v>
+        <v>0.002407810454062871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H3">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I3">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J3">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>113.3787778272085</v>
+        <v>121.5406553236013</v>
       </c>
       <c r="R3">
-        <v>113.3787778272085</v>
+        <v>729.2439319416079</v>
       </c>
       <c r="S3">
-        <v>0.006489745278025949</v>
+        <v>0.006295797229474445</v>
       </c>
       <c r="T3">
-        <v>0.006489745278025949</v>
+        <v>0.005324823052295756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H4">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I4">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J4">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>55.16817097570477</v>
+        <v>57.47374223016733</v>
       </c>
       <c r="R4">
-        <v>55.16817097570477</v>
+        <v>344.842453381004</v>
       </c>
       <c r="S4">
-        <v>0.00315779887513472</v>
+        <v>0.002977135725793241</v>
       </c>
       <c r="T4">
-        <v>0.00315779887513472</v>
+        <v>0.002517984675284792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H5">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I5">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J5">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>42.26476303217649</v>
+        <v>42.29675860220066</v>
       </c>
       <c r="R5">
-        <v>42.26476303217649</v>
+        <v>253.780551613204</v>
       </c>
       <c r="S5">
-        <v>0.002419214173687538</v>
+        <v>0.002190969062281949</v>
       </c>
       <c r="T5">
-        <v>0.002419214173687538</v>
+        <v>0.001853065171014033</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H6">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I6">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J6">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>42.86487836539495</v>
+        <v>44.55037701550867</v>
       </c>
       <c r="R6">
-        <v>42.86487836539495</v>
+        <v>267.302262093052</v>
       </c>
       <c r="S6">
-        <v>0.002453564479138536</v>
+        <v>0.002307706334473059</v>
       </c>
       <c r="T6">
-        <v>0.002453564479138536</v>
+        <v>0.001951798547482264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7365653418386</v>
+        <v>1.736858</v>
       </c>
       <c r="H7">
-        <v>1.7365653418386</v>
+        <v>3.473716</v>
       </c>
       <c r="I7">
-        <v>0.02029239934284747</v>
+        <v>0.01904277991942104</v>
       </c>
       <c r="J7">
-        <v>0.02029239934284747</v>
+        <v>0.01461981882753793</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>19.22746589356522</v>
+        <v>19.321735005743</v>
       </c>
       <c r="R7">
-        <v>19.22746589356522</v>
+        <v>77.28694002297199</v>
       </c>
       <c r="S7">
-        <v>0.001100570656894355</v>
+        <v>0.00100086448763926</v>
       </c>
       <c r="T7">
-        <v>0.001100570656894355</v>
+        <v>0.0005643369273982161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H8">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I8">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J8">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>1898.169909489546</v>
+        <v>2058.932444326406</v>
       </c>
       <c r="R8">
-        <v>1898.169909489546</v>
+        <v>12353.59466595844</v>
       </c>
       <c r="S8">
-        <v>0.1086503086651241</v>
+        <v>0.1066525529597675</v>
       </c>
       <c r="T8">
-        <v>0.1086503086651241</v>
+        <v>0.09020398082829791</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H9">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I9">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J9">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>2636.97392736438</v>
+        <v>3035.524363132344</v>
       </c>
       <c r="R9">
-        <v>2636.97392736438</v>
+        <v>27319.7192681911</v>
       </c>
       <c r="S9">
-        <v>0.1509390859678477</v>
+        <v>0.1572399443176256</v>
       </c>
       <c r="T9">
-        <v>0.1509390859678477</v>
+        <v>0.1994842391820695</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H10">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I10">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J10">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>1283.106338516223</v>
+        <v>1435.428699273956</v>
       </c>
       <c r="R10">
-        <v>1283.106338516223</v>
+        <v>12918.8582934656</v>
       </c>
       <c r="S10">
-        <v>0.07344437346362465</v>
+        <v>0.07435510368062166</v>
       </c>
       <c r="T10">
-        <v>0.07344437346362465</v>
+        <v>0.0943314458129712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H11">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I11">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J11">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>982.9977029028922</v>
+        <v>1056.377727079572</v>
       </c>
       <c r="R11">
-        <v>982.9977029028922</v>
+        <v>9507.39954371615</v>
       </c>
       <c r="S11">
-        <v>0.05626630329748959</v>
+        <v>0.05472029050459309</v>
       </c>
       <c r="T11">
-        <v>0.05626630329748959</v>
+        <v>0.06942151732819572</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H12">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I12">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J12">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>996.9552399079253</v>
+        <v>1112.66270909309</v>
       </c>
       <c r="R12">
-        <v>996.9552399079253</v>
+        <v>10013.96438183781</v>
       </c>
       <c r="S12">
-        <v>0.05706522582608954</v>
+        <v>0.05763584853641585</v>
       </c>
       <c r="T12">
-        <v>0.05706522582608954</v>
+        <v>0.07312037310109323</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>40.3891946742618</v>
+        <v>43.378693</v>
       </c>
       <c r="H13">
-        <v>40.3891946742618</v>
+        <v>130.136079</v>
       </c>
       <c r="I13">
-        <v>0.4719624696634672</v>
+        <v>0.4756007134671516</v>
       </c>
       <c r="J13">
-        <v>0.4719624696634672</v>
+        <v>0.5477033522332176</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>447.1941506362921</v>
+        <v>482.5677234647155</v>
       </c>
       <c r="R13">
-        <v>447.1941506362921</v>
+        <v>2895.406340788293</v>
       </c>
       <c r="S13">
-        <v>0.0255971724432916</v>
+        <v>0.02499697346812795</v>
       </c>
       <c r="T13">
-        <v>0.0255971724432916</v>
+        <v>0.0211417959805901</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H14">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I14">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J14">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>199.9164976011513</v>
+        <v>213.3214000591593</v>
       </c>
       <c r="R14">
-        <v>199.9164976011513</v>
+        <v>1279.928400354956</v>
       </c>
       <c r="S14">
-        <v>0.01144312164207513</v>
+        <v>0.01105003322472024</v>
       </c>
       <c r="T14">
-        <v>0.01144312164207513</v>
+        <v>0.009345833339129965</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H15">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I15">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J15">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>277.7278204594481</v>
+        <v>314.5039114039158</v>
       </c>
       <c r="R15">
-        <v>277.7278204594481</v>
+        <v>2830.535202635242</v>
       </c>
       <c r="S15">
-        <v>0.01589700335410221</v>
+        <v>0.01629128005607481</v>
       </c>
       <c r="T15">
-        <v>0.01589700335410221</v>
+        <v>0.02066811726111645</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H16">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I16">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J16">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>135.1375996235142</v>
+        <v>148.7215671684635</v>
       </c>
       <c r="R16">
-        <v>135.1375996235142</v>
+        <v>1338.494104516171</v>
       </c>
       <c r="S16">
-        <v>0.007735209497292706</v>
+        <v>0.00770376651375921</v>
       </c>
       <c r="T16">
-        <v>0.007735209497292706</v>
+        <v>0.009773470783793051</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H17">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I17">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J17">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>103.5299616392984</v>
+        <v>109.4489410533579</v>
       </c>
       <c r="R17">
-        <v>103.5299616392984</v>
+        <v>985.0404694802208</v>
       </c>
       <c r="S17">
-        <v>0.005926003900895879</v>
+        <v>0.005669447297433125</v>
       </c>
       <c r="T17">
-        <v>0.005926003900895879</v>
+        <v>0.007192608631472996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H18">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I18">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J18">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>104.9999785746817</v>
+        <v>115.2805025494692</v>
       </c>
       <c r="R18">
-        <v>104.9999785746817</v>
+        <v>1037.524522945223</v>
       </c>
       <c r="S18">
-        <v>0.006010146944663394</v>
+        <v>0.005971521764721261</v>
       </c>
       <c r="T18">
-        <v>0.006010146944663394</v>
+        <v>0.007575838831310632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.25381642593885</v>
+        <v>4.494369666666667</v>
       </c>
       <c r="H19">
-        <v>4.25381642593885</v>
+        <v>13.483109</v>
       </c>
       <c r="I19">
-        <v>0.04970739629925084</v>
+        <v>0.04927592954568251</v>
       </c>
       <c r="J19">
-        <v>0.04970739629925084</v>
+        <v>0.05674632319163286</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>47.09878072346586</v>
+        <v>49.99776591821717</v>
       </c>
       <c r="R19">
-        <v>47.09878072346586</v>
+        <v>299.986595509303</v>
       </c>
       <c r="S19">
-        <v>0.002695910960221522</v>
+        <v>0.002589880688973864</v>
       </c>
       <c r="T19">
-        <v>0.002695910960221522</v>
+        <v>0.002190454344809775</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H20">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I20">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J20">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>143.7495724273524</v>
+        <v>145.7820618795494</v>
       </c>
       <c r="R20">
-        <v>143.7495724273524</v>
+        <v>874.6923712772962</v>
       </c>
       <c r="S20">
-        <v>0.008228154569635727</v>
+        <v>0.007551500350600081</v>
       </c>
       <c r="T20">
-        <v>0.008228154569635727</v>
+        <v>0.006386864392335496</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H21">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I21">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J21">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>199.6996542120106</v>
+        <v>214.9293444583191</v>
       </c>
       <c r="R21">
-        <v>199.6996542120106</v>
+        <v>1934.364100124872</v>
       </c>
       <c r="S21">
-        <v>0.0114307096335166</v>
+        <v>0.01113332462928298</v>
       </c>
       <c r="T21">
-        <v>0.0114307096335166</v>
+        <v>0.01412441859400074</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H22">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I22">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J22">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>97.1704306439742</v>
+        <v>101.6350760015818</v>
       </c>
       <c r="R22">
-        <v>97.1704306439742</v>
+        <v>914.7156840142361</v>
       </c>
       <c r="S22">
-        <v>0.005561987485846282</v>
+        <v>0.005264689648122456</v>
       </c>
       <c r="T22">
-        <v>0.005561987485846282</v>
+        <v>0.00667910824786334</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H23">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I23">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J23">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>74.44301944885432</v>
+        <v>74.79649155155957</v>
       </c>
       <c r="R23">
-        <v>74.44301944885432</v>
+        <v>673.168423964036</v>
       </c>
       <c r="S23">
-        <v>0.004261081687496005</v>
+        <v>0.00387445289834039</v>
       </c>
       <c r="T23">
-        <v>0.004261081687496005</v>
+        <v>0.004915368623579197</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H24">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I24">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J24">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>75.50003229400683</v>
+        <v>78.78173193834091</v>
       </c>
       <c r="R24">
-        <v>75.50003229400683</v>
+        <v>709.0355874450681</v>
       </c>
       <c r="S24">
-        <v>0.004321584581001311</v>
+        <v>0.004080888064574149</v>
       </c>
       <c r="T24">
-        <v>0.004321584581001311</v>
+        <v>0.005177264939145046</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.05869850537856</v>
+        <v>3.071414666666667</v>
       </c>
       <c r="H25">
-        <v>3.05869850537856</v>
+        <v>9.214244000000001</v>
       </c>
       <c r="I25">
-        <v>0.03574200753931734</v>
+        <v>0.0336747584077773</v>
       </c>
       <c r="J25">
-        <v>0.03574200753931734</v>
+        <v>0.03877996298854842</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N25">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O25">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P25">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q25">
-        <v>33.86628753548579</v>
+        <v>34.16805535172467</v>
       </c>
       <c r="R25">
-        <v>33.86628753548579</v>
+        <v>205.008332110348</v>
       </c>
       <c r="S25">
-        <v>0.00193848958182141</v>
+        <v>0.001769902816857247</v>
       </c>
       <c r="T25">
-        <v>0.00193848958182141</v>
+        <v>0.001496938191624603</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H26">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I26">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J26">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N26">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O26">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P26">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q26">
-        <v>142.8677968302859</v>
+        <v>201.357461855594</v>
       </c>
       <c r="R26">
-        <v>142.8677968302859</v>
+        <v>1208.144771133564</v>
       </c>
       <c r="S26">
-        <v>0.008177682169712153</v>
+        <v>0.01043030208376938</v>
       </c>
       <c r="T26">
-        <v>0.008177682169712153</v>
+        <v>0.008821680710752488</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H27">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I27">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J27">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N27">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O27">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P27">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q27">
-        <v>198.4746746948314</v>
+        <v>296.8652433669886</v>
       </c>
       <c r="R27">
-        <v>198.4746746948314</v>
+        <v>2671.787190302898</v>
       </c>
       <c r="S27">
-        <v>0.01136059241061438</v>
+        <v>0.01537759831671907</v>
       </c>
       <c r="T27">
-        <v>0.01136059241061438</v>
+        <v>0.01950896455713333</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H28">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I28">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J28">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N28">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O28">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P28">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q28">
-        <v>96.57437659628927</v>
+        <v>140.3806522923776</v>
       </c>
       <c r="R28">
-        <v>96.57437659628927</v>
+        <v>1263.425870631399</v>
       </c>
       <c r="S28">
-        <v>0.005527869646374536</v>
+        <v>0.007271707721346676</v>
       </c>
       <c r="T28">
-        <v>0.005527869646374536</v>
+        <v>0.0092253344952668</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H29">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I29">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J29">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N29">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O29">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P29">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q29">
-        <v>73.9863778268062</v>
+        <v>103.3105959700943</v>
       </c>
       <c r="R29">
-        <v>73.9863778268062</v>
+        <v>929.7953637308489</v>
       </c>
       <c r="S29">
-        <v>0.00423494374645246</v>
+        <v>0.00535148146233149</v>
       </c>
       <c r="T29">
-        <v>0.00423494374645246</v>
+        <v>0.006789217667577629</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H30">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I30">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J30">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N30">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O30">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P30">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q30">
-        <v>75.03690683957646</v>
+        <v>108.8150996025763</v>
       </c>
       <c r="R30">
-        <v>75.03690683957646</v>
+        <v>979.335896423187</v>
       </c>
       <c r="S30">
-        <v>0.004295075508592684</v>
+        <v>0.005636614355738581</v>
       </c>
       <c r="T30">
-        <v>0.004295075508592684</v>
+        <v>0.00715095474751578</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>3.03993611426126</v>
+        <v>4.242306999999999</v>
       </c>
       <c r="H31">
-        <v>3.03993611426126</v>
+        <v>12.726921</v>
       </c>
       <c r="I31">
-        <v>0.03552276215648836</v>
+        <v>0.04651233350775901</v>
       </c>
       <c r="J31">
-        <v>0.03552276215648836</v>
+        <v>0.05356375686797306</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N31">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O31">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P31">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q31">
-        <v>33.65854802428048</v>
+        <v>47.1936863387845</v>
       </c>
       <c r="R31">
-        <v>33.65854802428048</v>
+        <v>283.162118032707</v>
       </c>
       <c r="S31">
-        <v>0.001926598674742145</v>
+        <v>0.002444629567853818</v>
       </c>
       <c r="T31">
-        <v>0.001926598674742145</v>
+        <v>0.002067604689727034</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H32">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I32">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J32">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N32">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O32">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P32">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q32">
-        <v>1555.549119166073</v>
+        <v>1627.287912477579</v>
       </c>
       <c r="R32">
-        <v>1555.549119166073</v>
+        <v>6509.151649910317</v>
       </c>
       <c r="S32">
-        <v>0.08903886374776954</v>
+        <v>0.08429339716538588</v>
       </c>
       <c r="T32">
-        <v>0.08903886374776954</v>
+        <v>0.04752878870592608</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H33">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I33">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J33">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N33">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O33">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P33">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q33">
-        <v>2160.998575242746</v>
+        <v>2399.142389430127</v>
       </c>
       <c r="R33">
-        <v>2160.998575242746</v>
+        <v>14394.85433658076</v>
       </c>
       <c r="S33">
-        <v>0.1236944917581999</v>
+        <v>0.124275403717984</v>
       </c>
       <c r="T33">
-        <v>0.1236944917581999</v>
+        <v>0.1051089338539773</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H34">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I34">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J34">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N34">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O34">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P34">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q34">
-        <v>1051.504886204871</v>
+        <v>1134.498500904489</v>
       </c>
       <c r="R34">
-        <v>1051.504886204871</v>
+        <v>6806.991005426932</v>
       </c>
       <c r="S34">
-        <v>0.06018762065392157</v>
+        <v>0.05876694098629247</v>
       </c>
       <c r="T34">
-        <v>0.06018762065392157</v>
+        <v>0.04970356424627677</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H35">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I35">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J35">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N35">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O35">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P35">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q35">
-        <v>805.5660366590005</v>
+        <v>834.9136034181636</v>
       </c>
       <c r="R35">
-        <v>805.5660366590005</v>
+        <v>5009.481620508981</v>
       </c>
       <c r="S35">
-        <v>0.04611020230358524</v>
+        <v>0.04324846478123176</v>
       </c>
       <c r="T35">
-        <v>0.04611020230358524</v>
+        <v>0.0365784369873564</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H36">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I36">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J36">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N36">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O36">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P36">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q36">
-        <v>817.004229986881</v>
+        <v>879.3987302308508</v>
       </c>
       <c r="R36">
-        <v>817.004229986881</v>
+        <v>5276.392381385104</v>
       </c>
       <c r="S36">
-        <v>0.0467649188436761</v>
+        <v>0.04555279115987809</v>
       </c>
       <c r="T36">
-        <v>0.0467649188436761</v>
+        <v>0.03852737685530278</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>33.0989211689013</v>
+        <v>34.28457450000001</v>
       </c>
       <c r="H37">
-        <v>33.0989211689013</v>
+        <v>68.56914900000001</v>
       </c>
       <c r="I37">
-        <v>0.386772964998629</v>
+        <v>0.3758934851522086</v>
       </c>
       <c r="J37">
-        <v>0.386772964998629</v>
+        <v>0.2885867858910901</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N37">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O37">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P37">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q37">
-        <v>366.4753421918764</v>
+        <v>381.3998975584958</v>
       </c>
       <c r="R37">
-        <v>366.4753421918764</v>
+        <v>1525.599590233983</v>
       </c>
       <c r="S37">
-        <v>0.02097686769147661</v>
+        <v>0.01975648734143641</v>
       </c>
       <c r="T37">
-        <v>0.02097686769147661</v>
+        <v>0.0111396852422508</v>
       </c>
     </row>
   </sheetData>
